--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ccl12-Ccr10.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ccl12-Ccr10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>Inflammatory-Mac</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
     <t>Neutrophils</t>
   </si>
   <si>
@@ -89,6 +92,9 @@
   </si>
   <si>
     <t>Ccr10</t>
+  </si>
+  <si>
+    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,13 +525,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -534,170 +540,480 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>29.48083233333334</v>
+        <v>42.70362466666668</v>
       </c>
       <c r="H2">
-        <v>88.442497</v>
+        <v>128.110874</v>
       </c>
       <c r="I2">
-        <v>0.3670116098006381</v>
+        <v>0.510021191154308</v>
       </c>
       <c r="J2">
-        <v>0.3670116098006381</v>
+        <v>0.5102913077099245</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M2">
-        <v>0.1003636666666667</v>
+        <v>0.2651005</v>
       </c>
       <c r="N2">
-        <v>0.301091</v>
+        <v>0.530201</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.2682690254597046</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.2682690254597046</v>
       </c>
       <c r="Q2">
-        <v>2.958804429358556</v>
+        <v>11.32075225094567</v>
       </c>
       <c r="R2">
-        <v>26.629239864227</v>
+        <v>67.92451350567401</v>
       </c>
       <c r="S2">
-        <v>0.3670116098006381</v>
+        <v>0.1368228879147639</v>
       </c>
       <c r="T2">
-        <v>0.3670116098006381</v>
+        <v>0.1368953518198997</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.2401406666666667</v>
+        <v>42.70362466666668</v>
       </c>
       <c r="H3">
-        <v>0.720422</v>
+        <v>128.110874</v>
       </c>
       <c r="I3">
-        <v>0.0029895496726624</v>
+        <v>0.510021191154308</v>
       </c>
       <c r="J3">
-        <v>0.0029895496726624</v>
+        <v>0.5102913077099245</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M3">
-        <v>0.1003636666666667</v>
+        <v>0.7230885</v>
       </c>
       <c r="N3">
-        <v>0.301091</v>
+        <v>1.446177</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.7317309745402955</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.7317309745402955</v>
       </c>
       <c r="Q3">
-        <v>0.02410139782244445</v>
+        <v>30.87849990478301</v>
       </c>
       <c r="R3">
-        <v>0.216912580402</v>
+        <v>185.270999428698</v>
       </c>
       <c r="S3">
-        <v>0.0029895496726624</v>
+        <v>0.3731983032395441</v>
       </c>
       <c r="T3">
-        <v>0.0029895496726624</v>
+        <v>0.3733959558900248</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0.5</v>
+      </c>
+      <c r="G4">
+        <v>0.132963</v>
+      </c>
+      <c r="H4">
+        <v>0.265926</v>
+      </c>
+      <c r="I4">
+        <v>0.001588013855235666</v>
+      </c>
+      <c r="J4">
+        <v>0.001059236597621443</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>0.5</v>
+      </c>
+      <c r="M4">
+        <v>0.2651005</v>
+      </c>
+      <c r="N4">
+        <v>0.530201</v>
+      </c>
+      <c r="O4">
+        <v>0.2682690254597046</v>
+      </c>
+      <c r="P4">
+        <v>0.2682690254597046</v>
+      </c>
+      <c r="Q4">
+        <v>0.0352485577815</v>
+      </c>
+      <c r="R4">
+        <v>0.140994231126</v>
+      </c>
+      <c r="S4">
+        <v>0.0004260149293605806</v>
+      </c>
+      <c r="T4">
+        <v>0.0002841603697751577</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.5</v>
+      </c>
+      <c r="G5">
+        <v>0.132963</v>
+      </c>
+      <c r="H5">
+        <v>0.265926</v>
+      </c>
+      <c r="I5">
+        <v>0.001588013855235666</v>
+      </c>
+      <c r="J5">
+        <v>0.001059236597621443</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0.5</v>
+      </c>
+      <c r="M5">
+        <v>0.7230885</v>
+      </c>
+      <c r="N5">
+        <v>1.446177</v>
+      </c>
+      <c r="O5">
+        <v>0.7317309745402955</v>
+      </c>
+      <c r="P5">
+        <v>0.7317309745402955</v>
+      </c>
+      <c r="Q5">
+        <v>0.09614401622550001</v>
+      </c>
+      <c r="R5">
+        <v>0.384576064902</v>
+      </c>
+      <c r="S5">
+        <v>0.001161998925875086</v>
+      </c>
+      <c r="T5">
+        <v>0.0007750762278462852</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
         <v>22</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>8.925701999999999</v>
+      </c>
+      <c r="H6">
+        <v>26.777106</v>
+      </c>
+      <c r="I6">
+        <v>0.1066021257320059</v>
+      </c>
+      <c r="J6">
+        <v>0.1066585841684857</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0.5</v>
+      </c>
+      <c r="M6">
+        <v>0.2651005</v>
+      </c>
+      <c r="N6">
+        <v>0.530201</v>
+      </c>
+      <c r="O6">
+        <v>0.2682690254597046</v>
+      </c>
+      <c r="P6">
+        <v>0.2682690254597046</v>
+      </c>
+      <c r="Q6">
+        <v>2.366208063051</v>
+      </c>
+      <c r="R6">
+        <v>14.197248378306</v>
+      </c>
+      <c r="S6">
+        <v>0.02859804838205812</v>
+      </c>
+      <c r="T6">
+        <v>0.02861319443179153</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>8.925701999999999</v>
+      </c>
+      <c r="H7">
+        <v>26.777106</v>
+      </c>
+      <c r="I7">
+        <v>0.1066021257320059</v>
+      </c>
+      <c r="J7">
+        <v>0.1066585841684857</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0.5</v>
+      </c>
+      <c r="M7">
+        <v>0.7230885</v>
+      </c>
+      <c r="N7">
+        <v>1.446177</v>
+      </c>
+      <c r="O7">
+        <v>0.7317309745402955</v>
+      </c>
+      <c r="P7">
+        <v>0.7317309745402955</v>
+      </c>
+      <c r="Q7">
+        <v>6.454072470627</v>
+      </c>
+      <c r="R7">
+        <v>38.724434823762</v>
+      </c>
+      <c r="S7">
+        <v>0.07800407734994777</v>
+      </c>
+      <c r="T7">
+        <v>0.07804538973669414</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B8" t="s">
         <v>24</v>
       </c>
-      <c r="D4" t="s">
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>31.96682866666667</v>
+      </c>
+      <c r="H8">
+        <v>95.900486</v>
+      </c>
+      <c r="I8">
+        <v>0.3817886692584505</v>
+      </c>
+      <c r="J8">
+        <v>0.3819908715239683</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.5</v>
+      </c>
+      <c r="M8">
+        <v>0.2651005</v>
+      </c>
+      <c r="N8">
+        <v>0.530201</v>
+      </c>
+      <c r="O8">
+        <v>0.2682690254597046</v>
+      </c>
+      <c r="P8">
+        <v>0.2682690254597046</v>
+      </c>
+      <c r="Q8">
+        <v>8.474422262947668</v>
+      </c>
+      <c r="R8">
+        <v>50.846533577686</v>
+      </c>
+      <c r="S8">
+        <v>0.102422074233522</v>
+      </c>
+      <c r="T8">
+        <v>0.1024763188382382</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="E4">
+      <c r="E9">
         <v>3</v>
       </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>50.60572933333333</v>
-      </c>
-      <c r="H4">
-        <v>151.817188</v>
-      </c>
-      <c r="I4">
-        <v>0.6299988405266995</v>
-      </c>
-      <c r="J4">
-        <v>0.6299988405266996</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M4">
-        <v>0.1003636666666667</v>
-      </c>
-      <c r="N4">
-        <v>0.301091</v>
-      </c>
-      <c r="O4">
-        <v>1</v>
-      </c>
-      <c r="P4">
-        <v>1</v>
-      </c>
-      <c r="Q4">
-        <v>5.078976550234222</v>
-      </c>
-      <c r="R4">
-        <v>45.710788952108</v>
-      </c>
-      <c r="S4">
-        <v>0.6299988405266995</v>
-      </c>
-      <c r="T4">
-        <v>0.6299988405266996</v>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>31.96682866666667</v>
+      </c>
+      <c r="H9">
+        <v>95.900486</v>
+      </c>
+      <c r="I9">
+        <v>0.3817886692584505</v>
+      </c>
+      <c r="J9">
+        <v>0.3819908715239683</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.5</v>
+      </c>
+      <c r="M9">
+        <v>0.7230885</v>
+      </c>
+      <c r="N9">
+        <v>1.446177</v>
+      </c>
+      <c r="O9">
+        <v>0.7317309745402955</v>
+      </c>
+      <c r="P9">
+        <v>0.7317309745402955</v>
+      </c>
+      <c r="Q9">
+        <v>23.114846190337</v>
+      </c>
+      <c r="R9">
+        <v>138.689077142022</v>
+      </c>
+      <c r="S9">
+        <v>0.2793665950249286</v>
+      </c>
+      <c r="T9">
+        <v>0.2795145526857301</v>
       </c>
     </row>
   </sheetData>
